--- a/vaq ETABS/Respaldo Inge/Derivas de Piso.xlsx
+++ b/vaq ETABS/Respaldo Inge/Derivas de Piso.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\Respaldo Inge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\gitPrimer-Semetre-25\vaq ETABS\Respaldo Inge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6D8D1-050C-4ADA-B03B-8F926EDA0D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA9879C-5DB8-4DC0-AE04-2FB6CD211F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1BB2D6F6-3246-4198-999E-13A37C97F05F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1BB2D6F6-3246-4198-999E-13A37C97F05F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -907,16 +907,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C323B9-FE40-48AA-A32B-0320B98D05E3}">
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>5</v>
       </c>
@@ -924,7 +924,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>5</v>
       </c>
@@ -967,7 +967,7 @@
         <v>0.6767578125</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0.86178125000000017</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0.98106250000000006</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0.88773437499999985</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="8">
         <v>1</v>
       </c>
@@ -1059,10 +1059,10 @@
         <v>0.43257500000000004</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0.55764843749999971</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>0.78650000000000009</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>3</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0.95811718749999986</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>0.91781249999999992</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="8">
         <v>1</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>0.47098333333333336</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="G18" s="11"/>
     </row>
